--- a/excel/role_角色.xlsx
+++ b/excel/role_角色.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6B305F-C2AA-4ED6-8FDE-5733EE8C2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE226CE-0FDC-4F1A-858C-39E61F6D126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="2595" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="信息_info" sheetId="1" r:id="rId1"/>
+    <sheet name="info_信息" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -549,7 +549,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/role_角色.xlsx
+++ b/excel/role_角色.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE226CE-0FDC-4F1A-858C-39E61F6D126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FE7766-A813-4202-AD92-435173D85626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="2595" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="2295" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info_信息" sheetId="1" r:id="rId1"/>
@@ -546,10 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
